--- a/Machine Proj 1b/FullTransfers.xlsx
+++ b/Machine Proj 1b/FullTransfers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20ajj3\source\repos\Machine Proj 1b\Machine Proj 1b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20ajj3\git\Machine-Proj-1b\Machine Proj 1b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109DAA75-5027-424C-943B-64425766FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E66E980-7B3F-4596-9591-7B8D8EAC7A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Graph" sheetId="3" r:id="rId1"/>
@@ -22,16 +22,29 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">transfer_times!$C$1:$C$6</definedName>
     <definedName name="ExternalData_2" localSheetId="3" hidden="1">transfer_times!$D$1:$E$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - multiplication_times" description="Connection to the 'multiplication_times' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - multiplication_times" description="Connection to the 'multiplication_times' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=multiplication_times;Extended Properties=&quot;&quot;" command="SELECT * FROM [multiplication_times]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - transfer_times_back" description="Connection to the 'transfer_times_back' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - transfer_times_back" description="Connection to the 'transfer_times_back' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=transfer_times_back;Extended Properties=&quot;&quot;" command="SELECT * FROM [transfer_times_back]"/>
   </connection>
 </connections>
@@ -61,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +675,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transfer Time Device to Host (ms)</c:v>
+                  <c:v>Transfer Time Host to Device (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -753,7 +766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transfer Time Host to Device (ms)</c:v>
+                  <c:v>Transfer Time Device to Host (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -993,19 +1006,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66</c:v>
+                  <c:v>644.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>8734.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.94</c:v>
+                  <c:v>72735.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.54</c:v>
+                  <c:v>638659.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.809999999999999</c:v>
+                  <c:v>2241564.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,7 +1327,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transfer Time Device to Host (ms)</c:v>
+                  <c:v>Transfer Time Host to Device (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1405,7 +1418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transfer Time Host to Device (ms)</c:v>
+                  <c:v>Transfer Time Device to Host (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1937,19 +1950,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66</c:v>
+                  <c:v>644.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>8734.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.94</c:v>
+                  <c:v>72735.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.54</c:v>
+                  <c:v>638659.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.809999999999999</c:v>
+                  <c:v>2241564.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,10 +3856,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3854,10 +3867,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3865,10 +3878,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3879,7 +3892,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666892" cy="6281351"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3912,7 +3925,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666892" cy="6281351"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3945,7 +3958,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666892" cy="6281351"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3975,7 +3988,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="1">
       <queryTableField id="2" name="Transfer Time (ms)" tableColumnId="2"/>
@@ -3988,7 +4001,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5" unboundColumnsRight="1">
     <queryTableFields count="3">
       <queryTableField id="2" name="CPU Time (ms)" tableColumnId="2"/>
@@ -4003,22 +4016,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="transfer_times_back" displayName="transfer_times_back" ref="C1:C6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="C1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="transfer_times_back" displayName="transfer_times_back" ref="C1:C6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="C1:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="2" uniqueName="2" name="Transfer Time Host to Device (ms)" queryTableFieldId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Transfer Time Device to Host (ms)" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="multiplication_times" displayName="multiplication_times" ref="D1:F6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="multiplication_times" displayName="multiplication_times" ref="D1:F6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:F6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" uniqueName="2" name="CPU Time (ms)" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="GPU Time (ms)" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Transfer Time + Transfer Time + GPU time" queryTableFieldId="4" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="CPU Time (ms)" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="GPU Time (ms)" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Transfer Time + Transfer Time + GPU time" queryTableFieldId="4" dataDxfId="0">
       <calculatedColumnFormula>SUM(B2,C2,E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4322,11 +4335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4374,11 +4387,11 @@
         <v>1.57</v>
       </c>
       <c r="E2">
-        <v>0.66</v>
+        <v>644.66</v>
       </c>
       <c r="F2">
         <f>SUM(B2,C2,E2)</f>
-        <v>0.77</v>
+        <v>644.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,11 +4408,11 @@
         <v>22.98</v>
       </c>
       <c r="E3">
-        <v>0.95</v>
+        <v>8734.09</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F6" si="0">SUM(B3,C3,E3)</f>
-        <v>1.1299999999999999</v>
+        <f t="shared" ref="F3:F6" si="0">SUM(B3,C3,E3)</f>
+        <v>8734.27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4416,11 +4429,11 @@
         <v>183.83</v>
       </c>
       <c r="E4">
-        <v>1.94</v>
+        <v>72735.42</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.44</v>
+        <v>72735.92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4437,11 +4450,11 @@
         <v>1486.32</v>
       </c>
       <c r="E5">
-        <v>3.54</v>
+        <v>638659.56000000006</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>4.87</v>
+        <v>638660.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4458,11 +4471,11 @@
         <v>5165.2299999999996</v>
       </c>
       <c r="E6">
-        <v>18.809999999999999</v>
+        <v>2241564.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.89</v>
+        <v>2241567.58</v>
       </c>
     </row>
   </sheetData>
